--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C000195F-DA5E-DC40-A87D-2847A88AFB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8910E2DC-F329-7446-ABF2-6F7FDD4A60FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,28 @@
   </si>
   <si>
     <t>lap=10_th=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=20/thickness=2</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=30/thickness=2</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap=20_th=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap=30_th=2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -439,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -483,6 +505,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -500,6 +525,9 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -507,6 +535,46 @@
         <v>120</v>
       </c>
       <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8910E2DC-F329-7446-ABF2-6F7FDD4A60FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61031B-310F-1944-A6B4-D0981429A7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61031B-310F-1944-A6B4-D0981429A7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F41AC0-1E26-384E-877E-4B87D7868601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +97,58 @@
   </si>
   <si>
     <t>lap=30_th=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key_word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このパス以降のcsvファイルをまとめる．</t>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力するエクセルファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>シュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引張速度</t>
+    <rPh sb="0" eb="4">
+      <t>ヒッパリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験片長さ</t>
+    <rPh sb="0" eb="4">
+      <t>シケンヘンナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断面積</t>
+    <rPh sb="0" eb="3">
+      <t>ダンメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含まれるcsvファイルのみまとめる．複数ある時は「,」で指定</t>
+    <rPh sb="0" eb="1">
+      <t>フクマレ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -461,24 +513,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -486,95 +539,121 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>120</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>120</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>120</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matlab\Desktop\ansys\ansys-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F41AC0-1E26-384E-877E-4B87D7868601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4636ABA5-F944-4270-8BF1-6C468CD8C16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="24300" yWindow="105" windowWidth="14400" windowHeight="10755" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -149,6 +149,17 @@
     <rPh sb="28" eb="30">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=20</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap=20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,25 +524,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -554,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -577,7 +588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -597,7 +608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -617,7 +628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -637,7 +648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -654,12 +665,29 @@
         <v>120</v>
       </c>
       <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F41AC0-1E26-384E-877E-4B87D7868601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E90464-9CB7-F74E-9FD2-2EE24567DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -149,6 +149,21 @@
     <rPh sb="28" eb="30">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=20</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap=20_th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gap=0.5,gap=2.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -657,6 +672,26 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matlab\Desktop\ansys\ansys-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4636ABA5-F944-4270-8BF1-6C468CD8C16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A94C486-D556-6048-AEE2-011C0D61B752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24300" yWindow="105" windowWidth="14400" windowHeight="10755" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,14 +152,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CFRP2本_lap=20</t>
+    <t>CFRP2本_lap=20/thickness=1.0/gap=2.0</t>
     <rPh sb="5" eb="6">
       <t>ホn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lap=20</t>
+    <t>mesh</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,23 +526,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -608,7 +608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -628,7 +628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -648,7 +648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -668,12 +668,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A94C486-D556-6048-AEE2-011C0D61B752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD11AAED-D575-644A-B698-43D0931EA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -675,9 +675,6 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD11AAED-D575-644A-B698-43D0931EA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE956AFF-68D3-E746-AB54-E3A513AF9A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -159,7 +159,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mesh</t>
+    <t>t3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mesh_t2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mesh_t3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -673,7 +685,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -682,6 +700,26 @@
         <v>120</v>
       </c>
       <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>120</v>
+      </c>
+      <c r="G8">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE956AFF-68D3-E746-AB54-E3A513AF9A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8D3B0-65DE-0A4C-BCE0-0C7F62A56009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -163,15 +163,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>mesh_t3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remove_word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含まれるcsvファイルを排除する．</t>
+    <rPh sb="0" eb="1">
+      <t>フクマレ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイジョス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>mesh_t2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mesh_t3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>t2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -547,14 +561,15 @@
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -565,19 +580,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -587,139 +605,142 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>120</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>120</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>120</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>120</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>120</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8D3B0-65DE-0A4C-BCE0-0C7F62A56009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672043E-B4F9-084B-8C52-03768594DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -186,6 +186,21 @@
   </si>
   <si>
     <t>mesh_t2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=10</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap=10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g2.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -734,6 +749,9 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -741,6 +759,26 @@
         <v>120</v>
       </c>
       <c r="H8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>120</v>
+      </c>
+      <c r="H9">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672043E-B4F9-084B-8C52-03768594DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0533DE9-C71A-054A-AC4C-907AA294965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -196,11 +196,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lap=10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>g2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thickness_l10_g2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thickness_l10_g1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g1.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -565,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -767,10 +775,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -779,6 +787,26 @@
         <v>120</v>
       </c>
       <c r="H9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
+      <c r="H10">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0533DE9-C71A-054A-AC4C-907AA294965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DADF7FD-9E3F-2742-9CD4-E017595FA4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -209,6 +209,17 @@
   </si>
   <si>
     <t>g1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=30</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thickness_l30_g2.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -780,6 +791,9 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -800,6 +814,9 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
         <v>1</v>
       </c>
@@ -807,6 +824,26 @@
         <v>120</v>
       </c>
       <c r="H10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>120</v>
+      </c>
+      <c r="H11">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DADF7FD-9E3F-2742-9CD4-E017595FA4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFA49B-3D86-8E40-85FB-D1E960E8DDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>thickness_l30_g2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP1本/length=120</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP1本_len120</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -584,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -837,6 +855,9 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
         <v>1</v>
       </c>
@@ -844,6 +865,40 @@
         <v>120</v>
       </c>
       <c r="H11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>120</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFA49B-3D86-8E40-85FB-D1E960E8DDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38F37E-FC3E-CA43-A1F0-402EE7FF6FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>CFRP0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>solid_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=30/thickness=1.0/gap=2.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -602,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -902,6 +910,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>120</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\ansys-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38F37E-FC3E-CA43-A1F0-402EE7FF6FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1DFEE3-45AF-4159-8A36-B2AB09FEB46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -246,6 +237,25 @@
   </si>
   <si>
     <t>CFRP2本_lap=30/thickness=1.0/gap=2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=20</t>
+    <rPh sb="5" eb="6">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thickness_l20_g2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s136</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -253,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -610,26 +620,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -655,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -681,7 +691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -701,7 +711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -721,7 +731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -741,7 +751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -761,7 +771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -784,7 +794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -807,7 +817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -830,7 +840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -853,7 +863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -863,6 +873,9 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -876,13 +889,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
         <v>1</v>
       </c>
@@ -893,37 +909,66 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>120</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>120</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>120</v>
-      </c>
-      <c r="H14">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>120</v>
+      </c>
+      <c r="H15">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\ansys-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1DFEE3-45AF-4159-8A36-B2AB09FEB46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5990669-680D-A04A-AC41-6A3095C9CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -255,7 +255,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s136</t>
+    <t>CFRP2本_lap=30/thickness=2.0/gap=2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thickness_l30_g2.0_s186</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s186</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -263,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -620,26 +628,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -665,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -691,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -711,7 +719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -731,7 +739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -751,7 +759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -771,7 +779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -794,7 +802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -817,7 +825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -840,7 +848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -863,7 +871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -874,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -889,7 +897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -909,7 +917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -922,6 +930,9 @@
       <c r="D13" t="s">
         <v>41</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13">
         <v>1</v>
       </c>
@@ -932,7 +943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -952,7 +963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -969,6 +980,46 @@
         <v>120</v>
       </c>
       <c r="H15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>120</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>120</v>
+      </c>
+      <c r="H17">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5990669-680D-A04A-AC41-6A3095C9CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF96EDD-3614-3649-BB6D-AD4CB69ED342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -264,6 +264,14 @@
   </si>
   <si>
     <t>s186</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラス→0,マイナス→1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -628,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -641,13 +649,14 @@
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -664,16 +673,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -690,16 +702,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -713,13 +728,16 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -733,13 +751,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -753,13 +774,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -773,13 +797,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -796,13 +823,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -819,13 +849,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -842,13 +875,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -865,13 +901,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -891,13 +930,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -911,13 +953,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -937,13 +982,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -957,13 +1005,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -977,13 +1028,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -997,13 +1051,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1017,9 +1074,12 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H17">
+        <v>120</v>
+      </c>
+      <c r="I17">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF96EDD-3614-3649-BB6D-AD4CB69ED342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CA6829-7101-3846-97A5-F63FF44A315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <t>プラス→0,マイナス→1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=30/thickness=0.5/gap=0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l30_th0.5_g2.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1083,6 +1091,26 @@
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>120</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CA6829-7101-3846-97A5-F63FF44A315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB332F7-5BE1-8C47-95F3-5E8D668760A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -280,6 +280,38 @@
   </si>
   <si>
     <t>l30_th0.5_g2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=30/thickness=1.0/gap=2.0/correction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>correction_y_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本_lap=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>correction_y_l30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>correction_y_l20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -644,15 +676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
@@ -1078,6 +1110,9 @@
       <c r="C17" t="s">
         <v>44</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17">
         <v>1</v>
       </c>
@@ -1098,6 +1133,9 @@
       <c r="B18" t="s">
         <v>48</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18">
         <v>1</v>
       </c>
@@ -1108,6 +1146,78 @@
         <v>120</v>
       </c>
       <c r="I18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>120</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB332F7-5BE1-8C47-95F3-5E8D668760A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC56EC82-9676-6C46-9222-C4D88506C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC56EC82-9676-6C46-9222-C4D88506C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50A501-4254-DF47-918F-04D89BBEE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -312,6 +312,10 @@
   </si>
   <si>
     <t>correction_y_l20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>correction_len120</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -676,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1221,6 +1225,29 @@
         <v>50</v>
       </c>
     </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50A501-4254-DF47-918F-04D89BBEE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96047637-8EA7-804B-918F-FF5B656EBE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>correction_len120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update/lap=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -680,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:I22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1189,6 +1197,9 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20">
         <v>1</v>
       </c>
@@ -1212,6 +1223,9 @@
       <c r="C21" t="s">
         <v>52</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
@@ -1235,6 +1249,9 @@
       <c r="C22" t="s">
         <v>52</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
@@ -1245,6 +1262,26 @@
         <v>120</v>
       </c>
       <c r="I22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+      <c r="I23">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96047637-8EA7-804B-918F-FF5B656EBE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3B169-9574-6A4A-88A6-A27C549B7E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -319,11 +319,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>update/lap=20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>l20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/C2_lap=20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
       </c>
       <c r="F23">
         <v>0</v>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3B169-9574-6A4A-88A6-A27C549B7E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A4FA3F-CCB5-7049-B499-FEFC7AA055CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="3180" yWindow="2940" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>2/C2_lap=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/CFRP0/CFRP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/CFRP0/epoxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>epoxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/CFRP0/PLA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -688,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1272,6 +1296,9 @@
       <c r="B23" t="s">
         <v>58</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -1282,6 +1309,66 @@
         <v>120</v>
       </c>
       <c r="I23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>120</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>120</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>120</v>
+      </c>
+      <c r="I26">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/GitHub/ansys-management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A4FA3F-CCB5-7049-B499-FEFC7AA055CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70A774-6564-1441-8185-6E35533A8948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2940" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/C2_lap=20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CFRP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,6 +344,18 @@
   </si>
   <si>
     <t>2/CFRP0/PLA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/CFRP2_lap=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/CFRP2_lap=20/thickness=1.0/gap=0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th1_g05</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -712,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1291,14 +1299,11 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -1314,10 +1319,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1334,10 +1342,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
-        <v>63</v>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1354,10 +1365,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1369,6 +1383,26 @@
         <v>120</v>
       </c>
       <c r="I26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>120</v>
+      </c>
+      <c r="I27">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70A774-6564-1441-8185-6E35533A8948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D6523-9037-C044-BC45-18FAF8599FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09DCB73-B74E-4E49-973A-AEE038AF4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707113B4-0F26-A742-9C62-25D17576614E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>th1_g05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -703,6 +711,9 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -713,6 +724,26 @@
         <v>120</v>
       </c>
       <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>120</v>
+      </c>
+      <c r="I8">
         <v>50</v>
       </c>
     </row>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matlab\Documents\ansys-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707113B4-0F26-A742-9C62-25D17576614E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C76BB24-16E8-472A-8F1D-DF2BC7895CC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cfrp_lap</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -177,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,27 +542,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -583,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -612,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -635,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -658,7 +666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -681,7 +689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -704,7 +712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -727,13 +735,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -744,6 +755,26 @@
         <v>120</v>
       </c>
       <c r="I8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9">
         <v>50</v>
       </c>
     </row>
